--- a/comp/comparision.xlsx
+++ b/comp/comparision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dai-Hoc\4-hk2\Nguyen-Ly-May-Hoc\comp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132DD33E-C7AE-45F6-8F38-03ED2946F049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D272880-DAD7-45E1-86C5-6255BBBD91E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2197,7 +2197,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.88239999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.91180000000000005</c:v>
@@ -6133,8 +6133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6178,7 +6178,7 @@
         <v>0.95269999999999999</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>0.88239999999999996</v>
       </c>
       <c r="G3" s="4">
         <v>0.90620000000000001</v>

--- a/comp/comparision.xlsx
+++ b/comp/comparision.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dai-Hoc\4-hk2\Nguyen-Ly-May-Hoc\comp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaiHoc\ML\comp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D272880-DAD7-45E1-86C5-6255BBBD91E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="comparision" sheetId="1" r:id="rId1"/>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,6 +195,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -582,6 +582,7 @@
         <c:axId val="158400703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -683,6 +684,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -690,7 +692,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -766,6 +767,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1152,6 +1154,8 @@
         <c:axId val="158400703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.98"/>
+          <c:min val="0.75000000000000011"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1253,6 +1257,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1260,7 +1265,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1336,6 +1340,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1722,6 +1727,8 @@
         <c:axId val="158400703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.96000000000000008"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1823,6 +1830,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1830,7 +1838,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1906,6 +1913,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2292,6 +2300,7 @@
         <c:axId val="158400703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2393,6 +2402,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2400,7 +2410,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2476,6 +2485,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2862,6 +2872,7 @@
         <c:axId val="158400703"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2963,6 +2974,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2970,7 +2982,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6130,11 +6141,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" topLeftCell="B72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
